--- a/INTLINE/data/566/PHSA/General Wholesale Price Index by Commodity Group.xlsx
+++ b/INTLINE/data/566/PHSA/General Wholesale Price Index by Commodity Group.xlsx
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="102">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
   <x:si>
-    <x:t>General Wholesale Price Index by Commodity Group (2012=100) : January 2012 - March 2022</x:t>
+    <x:t>General Wholesale Price Index by Commodity Group (2012=100) : January 2012 - April 2022</x:t>
   </x:si>
   <x:si>
     <x:t>2012</x:t>
@@ -328,13 +328,10 @@
 .Other Miscellaneous Manufactures</x:t>
   </x:si>
   <x:si>
-    <x:t>Revision made for Clothing under Miscellaneous Manufactured Articles in Mindanao</x:t>
-  </x:si>
-  <x:si>
     <x:t>Latest update:</x:t>
   </x:si>
   <x:si>
-    <x:t>20220519 09:00</x:t>
+    <x:t>20220601 09:00</x:t>
   </x:si>
   <x:si>
     <x:t>Source:</x:t>
@@ -439,7 +436,7 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="6">
+  <x:cellStyleXfs count="5">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -455,11 +452,8 @@
     <x:xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="6">
+  <x:cellXfs count="5">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
@@ -478,10 +472,6 @@
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellXfs>
@@ -779,7 +769,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:EO94"/>
+  <x:dimension ref="A1:EO93"/>
   <x:sheetViews>
     <x:sheetView tabSelected="0" workbookViewId="0"/>
   </x:sheetViews>
@@ -791,8 +781,7 @@
     <x:col min="6" max="6" width="11.550625" style="0" customWidth="1"/>
     <x:col min="7" max="11" width="12.550625" style="0" customWidth="1"/>
     <x:col min="12" max="13" width="11.550625" style="0" customWidth="1"/>
-    <x:col min="14" max="135" width="12.550625" style="0" customWidth="1"/>
-    <x:col min="136" max="136" width="6.130625" style="0" customWidth="1"/>
+    <x:col min="14" max="136" width="12.550625" style="0" customWidth="1"/>
     <x:col min="137" max="137" width="6.840625" style="0" customWidth="1"/>
     <x:col min="138" max="138" width="5.980625" style="0" customWidth="1"/>
     <x:col min="139" max="139" width="5.4106250000000005" style="0" customWidth="1"/>
@@ -1681,8 +1670,8 @@
       <x:c r="EE5" s="3" t="n">
         <x:v>128.1</x:v>
       </x:c>
-      <x:c r="EF5" s="4" t="s">
-        <x:v>27</x:v>
+      <x:c r="EF5" s="3" t="n">
+        <x:v>128.9</x:v>
       </x:c>
       <x:c r="EG5" s="4" t="s">
         <x:v>27</x:v>
@@ -2115,8 +2104,8 @@
       <x:c r="EE6" s="3" t="n">
         <x:v>133.1</x:v>
       </x:c>
-      <x:c r="EF6" s="4" t="s">
-        <x:v>27</x:v>
+      <x:c r="EF6" s="3" t="n">
+        <x:v>134.2</x:v>
       </x:c>
       <x:c r="EG6" s="4" t="s">
         <x:v>27</x:v>
@@ -2549,8 +2538,8 @@
       <x:c r="EE7" s="3" t="n">
         <x:v>119.6</x:v>
       </x:c>
-      <x:c r="EF7" s="4" t="s">
-        <x:v>27</x:v>
+      <x:c r="EF7" s="3" t="n">
+        <x:v>119.6</x:v>
       </x:c>
       <x:c r="EG7" s="4" t="s">
         <x:v>27</x:v>
@@ -2983,8 +2972,8 @@
       <x:c r="EE8" s="3" t="n">
         <x:v>121.7</x:v>
       </x:c>
-      <x:c r="EF8" s="4" t="s">
-        <x:v>27</x:v>
+      <x:c r="EF8" s="3" t="n">
+        <x:v>119.4</x:v>
       </x:c>
       <x:c r="EG8" s="4" t="s">
         <x:v>27</x:v>
@@ -3417,8 +3406,8 @@
       <x:c r="EE9" s="3" t="n">
         <x:v>135.6</x:v>
       </x:c>
-      <x:c r="EF9" s="4" t="s">
-        <x:v>27</x:v>
+      <x:c r="EF9" s="3" t="n">
+        <x:v>136.2</x:v>
       </x:c>
       <x:c r="EG9" s="4" t="s">
         <x:v>27</x:v>
@@ -3851,8 +3840,8 @@
       <x:c r="EE10" s="3" t="n">
         <x:v>134.9</x:v>
       </x:c>
-      <x:c r="EF10" s="4" t="s">
-        <x:v>27</x:v>
+      <x:c r="EF10" s="3" t="n">
+        <x:v>135.8</x:v>
       </x:c>
       <x:c r="EG10" s="4" t="s">
         <x:v>27</x:v>
@@ -4285,8 +4274,8 @@
       <x:c r="EE11" s="3" t="n">
         <x:v>164.6</x:v>
       </x:c>
-      <x:c r="EF11" s="4" t="s">
-        <x:v>27</x:v>
+      <x:c r="EF11" s="3" t="n">
+        <x:v>166.9</x:v>
       </x:c>
       <x:c r="EG11" s="4" t="s">
         <x:v>27</x:v>
@@ -4719,8 +4708,8 @@
       <x:c r="EE12" s="3" t="n">
         <x:v>115.7</x:v>
       </x:c>
-      <x:c r="EF12" s="4" t="s">
-        <x:v>27</x:v>
+      <x:c r="EF12" s="3" t="n">
+        <x:v>117.1</x:v>
       </x:c>
       <x:c r="EG12" s="4" t="s">
         <x:v>27</x:v>
@@ -5153,8 +5142,8 @@
       <x:c r="EE13" s="3" t="n">
         <x:v>123.2</x:v>
       </x:c>
-      <x:c r="EF13" s="4" t="s">
-        <x:v>27</x:v>
+      <x:c r="EF13" s="3" t="n">
+        <x:v>122.6</x:v>
       </x:c>
       <x:c r="EG13" s="4" t="s">
         <x:v>27</x:v>
@@ -5587,8 +5576,8 @@
       <x:c r="EE14" s="3" t="n">
         <x:v>126.6</x:v>
       </x:c>
-      <x:c r="EF14" s="4" t="s">
-        <x:v>27</x:v>
+      <x:c r="EF14" s="3" t="n">
+        <x:v>129.1</x:v>
       </x:c>
       <x:c r="EG14" s="4" t="s">
         <x:v>27</x:v>
@@ -6021,8 +6010,8 @@
       <x:c r="EE15" s="3" t="n">
         <x:v>107.9</x:v>
       </x:c>
-      <x:c r="EF15" s="4" t="s">
-        <x:v>27</x:v>
+      <x:c r="EF15" s="3" t="n">
+        <x:v>108.4</x:v>
       </x:c>
       <x:c r="EG15" s="4" t="s">
         <x:v>27</x:v>
@@ -6455,8 +6444,8 @@
       <x:c r="EE16" s="3" t="n">
         <x:v>129.3</x:v>
       </x:c>
-      <x:c r="EF16" s="4" t="s">
-        <x:v>27</x:v>
+      <x:c r="EF16" s="3" t="n">
+        <x:v>130.1</x:v>
       </x:c>
       <x:c r="EG16" s="4" t="s">
         <x:v>27</x:v>
@@ -6889,8 +6878,8 @@
       <x:c r="EE17" s="3" t="n">
         <x:v>201.5</x:v>
       </x:c>
-      <x:c r="EF17" s="4" t="s">
-        <x:v>27</x:v>
+      <x:c r="EF17" s="3" t="n">
+        <x:v>206.4</x:v>
       </x:c>
       <x:c r="EG17" s="4" t="s">
         <x:v>27</x:v>
@@ -7323,8 +7312,8 @@
       <x:c r="EE18" s="3" t="n">
         <x:v>163.7</x:v>
       </x:c>
-      <x:c r="EF18" s="4" t="s">
-        <x:v>27</x:v>
+      <x:c r="EF18" s="3" t="n">
+        <x:v>165.7</x:v>
       </x:c>
       <x:c r="EG18" s="4" t="s">
         <x:v>27</x:v>
@@ -7757,8 +7746,8 @@
       <x:c r="EE19" s="3" t="n">
         <x:v>298.2</x:v>
       </x:c>
-      <x:c r="EF19" s="4" t="s">
-        <x:v>27</x:v>
+      <x:c r="EF19" s="3" t="n">
+        <x:v>310.6</x:v>
       </x:c>
       <x:c r="EG19" s="4" t="s">
         <x:v>27</x:v>
@@ -8191,8 +8180,8 @@
       <x:c r="EE20" s="3" t="n">
         <x:v>196.2</x:v>
       </x:c>
-      <x:c r="EF20" s="4" t="s">
-        <x:v>27</x:v>
+      <x:c r="EF20" s="3" t="n">
+        <x:v>193.6</x:v>
       </x:c>
       <x:c r="EG20" s="4" t="s">
         <x:v>27</x:v>
@@ -8625,8 +8614,8 @@
       <x:c r="EE21" s="3" t="n">
         <x:v>215.1</x:v>
       </x:c>
-      <x:c r="EF21" s="4" t="s">
-        <x:v>27</x:v>
+      <x:c r="EF21" s="3" t="n">
+        <x:v>211.7</x:v>
       </x:c>
       <x:c r="EG21" s="4" t="s">
         <x:v>27</x:v>
@@ -9059,8 +9048,8 @@
       <x:c r="EE22" s="3" t="n">
         <x:v>159.3</x:v>
       </x:c>
-      <x:c r="EF22" s="4" t="s">
-        <x:v>27</x:v>
+      <x:c r="EF22" s="3" t="n">
+        <x:v>159.7</x:v>
       </x:c>
       <x:c r="EG22" s="4" t="s">
         <x:v>27</x:v>
@@ -9493,8 +9482,8 @@
       <x:c r="EE23" s="3" t="n">
         <x:v>113.9</x:v>
       </x:c>
-      <x:c r="EF23" s="4" t="s">
-        <x:v>27</x:v>
+      <x:c r="EF23" s="3" t="n">
+        <x:v>113.9</x:v>
       </x:c>
       <x:c r="EG23" s="4" t="s">
         <x:v>27</x:v>
@@ -9927,8 +9916,8 @@
       <x:c r="EE24" s="3" t="n">
         <x:v>136</x:v>
       </x:c>
-      <x:c r="EF24" s="4" t="s">
-        <x:v>27</x:v>
+      <x:c r="EF24" s="3" t="n">
+        <x:v>136</x:v>
       </x:c>
       <x:c r="EG24" s="4" t="s">
         <x:v>27</x:v>
@@ -10361,8 +10350,8 @@
       <x:c r="EE25" s="3" t="n">
         <x:v>173.8</x:v>
       </x:c>
-      <x:c r="EF25" s="4" t="s">
-        <x:v>27</x:v>
+      <x:c r="EF25" s="3" t="n">
+        <x:v>174.1</x:v>
       </x:c>
       <x:c r="EG25" s="4" t="s">
         <x:v>27</x:v>
@@ -10795,8 +10784,8 @@
       <x:c r="EE26" s="3" t="n">
         <x:v>151.4</x:v>
       </x:c>
-      <x:c r="EF26" s="4" t="s">
-        <x:v>27</x:v>
+      <x:c r="EF26" s="3" t="n">
+        <x:v>157.4</x:v>
       </x:c>
       <x:c r="EG26" s="4" t="s">
         <x:v>27</x:v>
@@ -11229,8 +11218,8 @@
       <x:c r="EE27" s="3" t="n">
         <x:v>151.4</x:v>
       </x:c>
-      <x:c r="EF27" s="4" t="s">
-        <x:v>27</x:v>
+      <x:c r="EF27" s="3" t="n">
+        <x:v>157.4</x:v>
       </x:c>
       <x:c r="EG27" s="4" t="s">
         <x:v>27</x:v>
@@ -11663,8 +11652,8 @@
       <x:c r="EE28" s="3" t="n">
         <x:v>156.2</x:v>
       </x:c>
-      <x:c r="EF28" s="4" t="s">
-        <x:v>27</x:v>
+      <x:c r="EF28" s="3" t="n">
+        <x:v>163</x:v>
       </x:c>
       <x:c r="EG28" s="4" t="s">
         <x:v>27</x:v>
@@ -12097,8 +12086,8 @@
       <x:c r="EE29" s="3" t="n">
         <x:v>119.7</x:v>
       </x:c>
-      <x:c r="EF29" s="4" t="s">
-        <x:v>27</x:v>
+      <x:c r="EF29" s="3" t="n">
+        <x:v>120.6</x:v>
       </x:c>
       <x:c r="EG29" s="4" t="s">
         <x:v>27</x:v>
@@ -12531,8 +12520,8 @@
       <x:c r="EE30" s="3" t="n">
         <x:v>131.5</x:v>
       </x:c>
-      <x:c r="EF30" s="4" t="s">
-        <x:v>27</x:v>
+      <x:c r="EF30" s="3" t="n">
+        <x:v>131.5</x:v>
       </x:c>
       <x:c r="EG30" s="4" t="s">
         <x:v>27</x:v>
@@ -12965,8 +12954,8 @@
       <x:c r="EE31" s="3" t="n">
         <x:v>105.5</x:v>
       </x:c>
-      <x:c r="EF31" s="4" t="s">
-        <x:v>27</x:v>
+      <x:c r="EF31" s="3" t="n">
+        <x:v>105.5</x:v>
       </x:c>
       <x:c r="EG31" s="4" t="s">
         <x:v>27</x:v>
@@ -13399,8 +13388,8 @@
       <x:c r="EE32" s="3" t="n">
         <x:v>224.8</x:v>
       </x:c>
-      <x:c r="EF32" s="4" t="s">
-        <x:v>27</x:v>
+      <x:c r="EF32" s="3" t="n">
+        <x:v>220.9</x:v>
       </x:c>
       <x:c r="EG32" s="4" t="s">
         <x:v>27</x:v>
@@ -13833,8 +13822,8 @@
       <x:c r="EE33" s="3" t="n">
         <x:v>125.5</x:v>
       </x:c>
-      <x:c r="EF33" s="4" t="s">
-        <x:v>27</x:v>
+      <x:c r="EF33" s="3" t="n">
+        <x:v>125.8</x:v>
       </x:c>
       <x:c r="EG33" s="4" t="s">
         <x:v>27</x:v>
@@ -14267,8 +14256,8 @@
       <x:c r="EE34" s="3" t="n">
         <x:v>106.1</x:v>
       </x:c>
-      <x:c r="EF34" s="4" t="s">
-        <x:v>27</x:v>
+      <x:c r="EF34" s="3" t="n">
+        <x:v>107.2</x:v>
       </x:c>
       <x:c r="EG34" s="4" t="s">
         <x:v>27</x:v>
@@ -14701,8 +14690,8 @@
       <x:c r="EE35" s="3" t="n">
         <x:v>132</x:v>
       </x:c>
-      <x:c r="EF35" s="4" t="s">
-        <x:v>27</x:v>
+      <x:c r="EF35" s="3" t="n">
+        <x:v>132</x:v>
       </x:c>
       <x:c r="EG35" s="4" t="s">
         <x:v>27</x:v>
@@ -15135,8 +15124,8 @@
       <x:c r="EE36" s="3" t="n">
         <x:v>171.3</x:v>
       </x:c>
-      <x:c r="EF36" s="4" t="s">
-        <x:v>27</x:v>
+      <x:c r="EF36" s="3" t="n">
+        <x:v>172.3</x:v>
       </x:c>
       <x:c r="EG36" s="4" t="s">
         <x:v>27</x:v>
@@ -15569,8 +15558,8 @@
       <x:c r="EE37" s="3" t="n">
         <x:v>111.6</x:v>
       </x:c>
-      <x:c r="EF37" s="4" t="s">
-        <x:v>27</x:v>
+      <x:c r="EF37" s="3" t="n">
+        <x:v>112</x:v>
       </x:c>
       <x:c r="EG37" s="4" t="s">
         <x:v>27</x:v>
@@ -16003,8 +15992,8 @@
       <x:c r="EE38" s="3" t="n">
         <x:v>102.1</x:v>
       </x:c>
-      <x:c r="EF38" s="4" t="s">
-        <x:v>27</x:v>
+      <x:c r="EF38" s="3" t="n">
+        <x:v>104.6</x:v>
       </x:c>
       <x:c r="EG38" s="4" t="s">
         <x:v>27</x:v>
@@ -16437,8 +16426,8 @@
       <x:c r="EE39" s="3" t="n">
         <x:v>120.8</x:v>
       </x:c>
-      <x:c r="EF39" s="4" t="s">
-        <x:v>27</x:v>
+      <x:c r="EF39" s="3" t="n">
+        <x:v>120.8</x:v>
       </x:c>
       <x:c r="EG39" s="4" t="s">
         <x:v>27</x:v>
@@ -16871,8 +16860,8 @@
       <x:c r="EE40" s="3" t="n">
         <x:v>119.8</x:v>
       </x:c>
-      <x:c r="EF40" s="4" t="s">
-        <x:v>27</x:v>
+      <x:c r="EF40" s="3" t="n">
+        <x:v>120.3</x:v>
       </x:c>
       <x:c r="EG40" s="4" t="s">
         <x:v>27</x:v>
@@ -17305,8 +17294,8 @@
       <x:c r="EE41" s="3" t="n">
         <x:v>146.5</x:v>
       </x:c>
-      <x:c r="EF41" s="4" t="s">
-        <x:v>27</x:v>
+      <x:c r="EF41" s="3" t="n">
+        <x:v>146.5</x:v>
       </x:c>
       <x:c r="EG41" s="4" t="s">
         <x:v>27</x:v>
@@ -17739,8 +17728,8 @@
       <x:c r="EE42" s="3" t="n">
         <x:v>107.4</x:v>
       </x:c>
-      <x:c r="EF42" s="4" t="s">
-        <x:v>27</x:v>
+      <x:c r="EF42" s="3" t="n">
+        <x:v>107.4</x:v>
       </x:c>
       <x:c r="EG42" s="4" t="s">
         <x:v>27</x:v>
@@ -18173,8 +18162,8 @@
       <x:c r="EE43" s="3" t="n">
         <x:v>124.3</x:v>
       </x:c>
-      <x:c r="EF43" s="4" t="s">
-        <x:v>27</x:v>
+      <x:c r="EF43" s="3" t="n">
+        <x:v>124.3</x:v>
       </x:c>
       <x:c r="EG43" s="4" t="s">
         <x:v>27</x:v>
@@ -18607,8 +18596,8 @@
       <x:c r="EE44" s="3" t="n">
         <x:v>116.7</x:v>
       </x:c>
-      <x:c r="EF44" s="4" t="s">
-        <x:v>27</x:v>
+      <x:c r="EF44" s="3" t="n">
+        <x:v>118.1</x:v>
       </x:c>
       <x:c r="EG44" s="4" t="s">
         <x:v>27</x:v>
@@ -19041,8 +19030,8 @@
       <x:c r="EE45" s="3" t="n">
         <x:v>147.8</x:v>
       </x:c>
-      <x:c r="EF45" s="4" t="s">
-        <x:v>27</x:v>
+      <x:c r="EF45" s="3" t="n">
+        <x:v>147.7</x:v>
       </x:c>
       <x:c r="EG45" s="4" t="s">
         <x:v>27</x:v>
@@ -19475,8 +19464,8 @@
       <x:c r="EE46" s="3" t="n">
         <x:v>123.8</x:v>
       </x:c>
-      <x:c r="EF46" s="4" t="s">
-        <x:v>27</x:v>
+      <x:c r="EF46" s="3" t="n">
+        <x:v>124.3</x:v>
       </x:c>
       <x:c r="EG46" s="4" t="s">
         <x:v>27</x:v>
@@ -19909,8 +19898,8 @@
       <x:c r="EE47" s="3" t="n">
         <x:v>114.5</x:v>
       </x:c>
-      <x:c r="EF47" s="4" t="s">
-        <x:v>27</x:v>
+      <x:c r="EF47" s="3" t="n">
+        <x:v>115.2</x:v>
       </x:c>
       <x:c r="EG47" s="4" t="s">
         <x:v>27</x:v>
@@ -20343,8 +20332,8 @@
       <x:c r="EE48" s="3" t="n">
         <x:v>112.4</x:v>
       </x:c>
-      <x:c r="EF48" s="4" t="s">
-        <x:v>27</x:v>
+      <x:c r="EF48" s="3" t="n">
+        <x:v>112.5</x:v>
       </x:c>
       <x:c r="EG48" s="4" t="s">
         <x:v>27</x:v>
@@ -20777,8 +20766,8 @@
       <x:c r="EE49" s="3" t="n">
         <x:v>113.1</x:v>
       </x:c>
-      <x:c r="EF49" s="4" t="s">
-        <x:v>27</x:v>
+      <x:c r="EF49" s="3" t="n">
+        <x:v>112.4</x:v>
       </x:c>
       <x:c r="EG49" s="4" t="s">
         <x:v>27</x:v>
@@ -21211,8 +21200,8 @@
       <x:c r="EE50" s="3" t="n">
         <x:v>99.4</x:v>
       </x:c>
-      <x:c r="EF50" s="4" t="s">
-        <x:v>27</x:v>
+      <x:c r="EF50" s="3" t="n">
+        <x:v>99.4</x:v>
       </x:c>
       <x:c r="EG50" s="4" t="s">
         <x:v>27</x:v>
@@ -21645,8 +21634,8 @@
       <x:c r="EE51" s="3" t="n">
         <x:v>123.8</x:v>
       </x:c>
-      <x:c r="EF51" s="4" t="s">
-        <x:v>27</x:v>
+      <x:c r="EF51" s="3" t="n">
+        <x:v>123.3</x:v>
       </x:c>
       <x:c r="EG51" s="4" t="s">
         <x:v>27</x:v>
@@ -22079,8 +22068,8 @@
       <x:c r="EE52" s="3" t="n">
         <x:v>111.4</x:v>
       </x:c>
-      <x:c r="EF52" s="4" t="s">
-        <x:v>27</x:v>
+      <x:c r="EF52" s="3" t="n">
+        <x:v>108.4</x:v>
       </x:c>
       <x:c r="EG52" s="4" t="s">
         <x:v>27</x:v>
@@ -22513,8 +22502,8 @@
       <x:c r="EE53" s="3" t="n">
         <x:v>108.5</x:v>
       </x:c>
-      <x:c r="EF53" s="4" t="s">
-        <x:v>27</x:v>
+      <x:c r="EF53" s="3" t="n">
+        <x:v>108.7</x:v>
       </x:c>
       <x:c r="EG53" s="4" t="s">
         <x:v>27</x:v>
@@ -22947,8 +22936,8 @@
       <x:c r="EE54" s="3" t="n">
         <x:v>108</x:v>
       </x:c>
-      <x:c r="EF54" s="4" t="s">
-        <x:v>27</x:v>
+      <x:c r="EF54" s="3" t="n">
+        <x:v>108.1</x:v>
       </x:c>
       <x:c r="EG54" s="4" t="s">
         <x:v>27</x:v>
@@ -23381,8 +23370,8 @@
       <x:c r="EE55" s="3" t="n">
         <x:v>111.4</x:v>
       </x:c>
-      <x:c r="EF55" s="4" t="s">
-        <x:v>27</x:v>
+      <x:c r="EF55" s="3" t="n">
+        <x:v>111.2</x:v>
       </x:c>
       <x:c r="EG55" s="4" t="s">
         <x:v>27</x:v>
@@ -23815,8 +23804,8 @@
       <x:c r="EE56" s="3" t="n">
         <x:v>106.2</x:v>
       </x:c>
-      <x:c r="EF56" s="4" t="s">
-        <x:v>27</x:v>
+      <x:c r="EF56" s="3" t="n">
+        <x:v>106.2</x:v>
       </x:c>
       <x:c r="EG56" s="4" t="s">
         <x:v>27</x:v>
@@ -24249,8 +24238,8 @@
       <x:c r="EE57" s="3" t="n">
         <x:v>108.4</x:v>
       </x:c>
-      <x:c r="EF57" s="4" t="s">
-        <x:v>27</x:v>
+      <x:c r="EF57" s="3" t="n">
+        <x:v>108.4</x:v>
       </x:c>
       <x:c r="EG57" s="4" t="s">
         <x:v>27</x:v>
@@ -24683,8 +24672,8 @@
       <x:c r="EE58" s="3" t="n">
         <x:v>104.7</x:v>
       </x:c>
-      <x:c r="EF58" s="4" t="s">
-        <x:v>27</x:v>
+      <x:c r="EF58" s="3" t="n">
+        <x:v>104.7</x:v>
       </x:c>
       <x:c r="EG58" s="4" t="s">
         <x:v>27</x:v>
@@ -25117,8 +25106,8 @@
       <x:c r="EE59" s="3" t="n">
         <x:v>115</x:v>
       </x:c>
-      <x:c r="EF59" s="4" t="s">
-        <x:v>27</x:v>
+      <x:c r="EF59" s="3" t="n">
+        <x:v>118.8</x:v>
       </x:c>
       <x:c r="EG59" s="4" t="s">
         <x:v>27</x:v>
@@ -25551,8 +25540,8 @@
       <x:c r="EE60" s="3" t="n">
         <x:v>101.1</x:v>
       </x:c>
-      <x:c r="EF60" s="4" t="s">
-        <x:v>27</x:v>
+      <x:c r="EF60" s="3" t="n">
+        <x:v>101.1</x:v>
       </x:c>
       <x:c r="EG60" s="4" t="s">
         <x:v>27</x:v>
@@ -25985,8 +25974,8 @@
       <x:c r="EE61" s="3" t="n">
         <x:v>145.1</x:v>
       </x:c>
-      <x:c r="EF61" s="4" t="s">
-        <x:v>27</x:v>
+      <x:c r="EF61" s="3" t="n">
+        <x:v>145.4</x:v>
       </x:c>
       <x:c r="EG61" s="4" t="s">
         <x:v>27</x:v>
@@ -26419,8 +26408,8 @@
       <x:c r="EE62" s="3" t="n">
         <x:v>133.7</x:v>
       </x:c>
-      <x:c r="EF62" s="4" t="s">
-        <x:v>27</x:v>
+      <x:c r="EF62" s="3" t="n">
+        <x:v>133.7</x:v>
       </x:c>
       <x:c r="EG62" s="4" t="s">
         <x:v>27</x:v>
@@ -26853,8 +26842,8 @@
       <x:c r="EE63" s="3" t="n">
         <x:v>118.6</x:v>
       </x:c>
-      <x:c r="EF63" s="4" t="s">
-        <x:v>27</x:v>
+      <x:c r="EF63" s="3" t="n">
+        <x:v>118.7</x:v>
       </x:c>
       <x:c r="EG63" s="4" t="s">
         <x:v>27</x:v>
@@ -27287,8 +27276,8 @@
       <x:c r="EE64" s="3" t="n">
         <x:v>97.1</x:v>
       </x:c>
-      <x:c r="EF64" s="4" t="s">
-        <x:v>27</x:v>
+      <x:c r="EF64" s="3" t="n">
+        <x:v>97.2</x:v>
       </x:c>
       <x:c r="EG64" s="4" t="s">
         <x:v>27</x:v>
@@ -27318,8 +27307,8 @@
         <x:v>27</x:v>
       </x:c>
     </x:row>
-    <x:row r="66" spans="1:145">
-      <x:c r="A66" s="5" t="s">
+    <x:row r="67" spans="1:145">
+      <x:c r="A67" s="0" t="s">
         <x:v>87</x:v>
       </x:c>
     </x:row>
@@ -27328,8 +27317,8 @@
         <x:v>88</x:v>
       </x:c>
     </x:row>
-    <x:row r="69" spans="1:145">
-      <x:c r="A69" s="0" t="s">
+    <x:row r="70" spans="1:145">
+      <x:c r="A70" s="0" t="s">
         <x:v>89</x:v>
       </x:c>
     </x:row>
@@ -27338,8 +27327,8 @@
         <x:v>90</x:v>
       </x:c>
     </x:row>
-    <x:row r="72" spans="1:145">
-      <x:c r="A72" s="0" t="s">
+    <x:row r="73" spans="1:145">
+      <x:c r="A73" s="0" t="s">
         <x:v>91</x:v>
       </x:c>
     </x:row>
@@ -27368,8 +27357,8 @@
         <x:v>96</x:v>
       </x:c>
     </x:row>
-    <x:row r="79" spans="1:145">
-      <x:c r="A79" s="0" t="s">
+    <x:row r="81" spans="1:145">
+      <x:c r="A81" s="0" t="s">
         <x:v>97</x:v>
       </x:c>
     </x:row>
@@ -27378,19 +27367,14 @@
         <x:v>98</x:v>
       </x:c>
     </x:row>
-    <x:row r="83" spans="1:145">
-      <x:c r="A83" s="0" t="s">
+    <x:row r="92" spans="1:145">
+      <x:c r="A92" s="0" t="s">
         <x:v>99</x:v>
       </x:c>
     </x:row>
     <x:row r="93" spans="1:145">
       <x:c r="A93" s="0" t="s">
         <x:v>100</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="94" spans="1:145">
-      <x:c r="A94" s="0" t="s">
-        <x:v>101</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
